--- a/ShannonDiv_Pairwise_Illumina.xlsx
+++ b/ShannonDiv_Pairwise_Illumina.xlsx
@@ -7,17 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Locale_Illumina" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Locale2_Illumina" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Depth_Illumina" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hour_Illumina" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="TimeofDay_Illumina" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Latitude_Illumina" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Depth_Illumina" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hour_Illumina" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TimeofDay_Illumina" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Latitude_Illumina" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">.y.</t>
   </si>
@@ -88,15 +87,6 @@
     <t xml:space="preserve">Swordfish Seamount</t>
   </si>
   <si>
-    <t xml:space="preserve">Eddy Convergence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SwordfishSeamount2</t>
-  </si>
-  <si>
     <t xml:space="preserve">140</t>
   </si>
   <si>
@@ -124,9 +114,6 @@
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
@@ -142,13 +129,7 @@
     <t xml:space="preserve">Morning</t>
   </si>
   <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
     <t xml:space="preserve">Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -553,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.19535779764375</v>
+        <v>-0.541234948246206</v>
       </c>
       <c r="G2" t="n">
-        <v>5.28512776833968</v>
+        <v>6.80477119911526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.283</v>
+        <v>0.606</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -585,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.00878132686035</v>
+        <v>-0.281980743583236</v>
       </c>
       <c r="G3" t="n">
-        <v>5.84561959664408</v>
+        <v>5.54275838488039</v>
       </c>
       <c r="H3" t="n">
-        <v>0.353</v>
+        <v>0.788</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -617,13 +598,13 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.97515639939923</v>
+        <v>-0.88152077748963</v>
       </c>
       <c r="G4" t="n">
-        <v>5.64727122979426</v>
+        <v>5.71726516698361</v>
       </c>
       <c r="H4" t="n">
-        <v>0.099</v>
+        <v>0.414</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -649,13 +630,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.61532255985934</v>
+        <v>0.4378065392408</v>
       </c>
       <c r="G5" t="n">
-        <v>3.00339963292079</v>
+        <v>2.86586273983589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.205</v>
+        <v>0.692</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -681,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.444491826297322</v>
+        <v>0.248668911267318</v>
       </c>
       <c r="G6" t="n">
-        <v>3.50356170091357</v>
+        <v>3.18231662533456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.683</v>
+        <v>0.819</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -713,13 +694,13 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.66282419428692</v>
+        <v>-2.45865672635223</v>
       </c>
       <c r="G7" t="n">
-        <v>4.34759417116878</v>
+        <v>4.86713719148962</v>
       </c>
       <c r="H7" t="n">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -745,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1.51397842256179</v>
+        <v>0.225573001958864</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.94272968304899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.227</v>
+        <v>0.836</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -777,13 +758,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.60827809100893</v>
+        <v>-0.615947586582839</v>
       </c>
       <c r="G9" t="n">
-        <v>3.38780186430056</v>
+        <v>5.99078283326697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.196</v>
+        <v>0.561</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -809,13 +790,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.235638896212997</v>
+        <v>-0.305112483844045</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35527456619797</v>
+        <v>1.35841436009114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.827</v>
+        <v>0.8</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -841,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.84707072012749</v>
+        <v>0.258693610664555</v>
       </c>
       <c r="G11" t="n">
-        <v>7.99799563771303</v>
+        <v>4.54011381140192</v>
       </c>
       <c r="H11" t="n">
-        <v>0.102</v>
+        <v>0.807</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -873,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.581975091330965</v>
+        <v>0.233452754727173</v>
       </c>
       <c r="G12" t="n">
-        <v>5.70360741135542</v>
+        <v>6.90305152859545</v>
       </c>
       <c r="H12" t="n">
-        <v>0.583</v>
+        <v>0.822</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -905,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.038059572525208</v>
+        <v>-0.263981109647326</v>
       </c>
       <c r="G13" t="n">
-        <v>5.96695348600828</v>
+        <v>6.98343780852065</v>
       </c>
       <c r="H13" t="n">
-        <v>0.971</v>
+        <v>0.799</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -937,13 +918,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1.96383259759514</v>
+        <v>0.898783092295956</v>
       </c>
       <c r="G14" t="n">
-        <v>4.00077949893081</v>
+        <v>4.2708647076078</v>
       </c>
       <c r="H14" t="n">
-        <v>0.121</v>
+        <v>0.417</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -969,13 +950,13 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1.09224606215643</v>
+        <v>0.844847579255647</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1276876188955</v>
+        <v>4.12901424862889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.334</v>
+        <v>0.444</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1001,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0505933117051392</v>
+        <v>-1.33684409978145</v>
       </c>
       <c r="G16" t="n">
-        <v>4.35617682356268</v>
+        <v>5.5416993525575</v>
       </c>
       <c r="H16" t="n">
-        <v>0.962</v>
+        <v>0.234</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1033,13 +1014,13 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1.92172104864726</v>
+        <v>0.725503213214046</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>4.35871321565846</v>
       </c>
       <c r="H17" t="n">
-        <v>0.127</v>
+        <v>0.505</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1065,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.602577653967459</v>
+        <v>0.0191723589987502</v>
       </c>
       <c r="G18" t="n">
-        <v>4.08907494108922</v>
+        <v>6.87809614850056</v>
       </c>
       <c r="H18" t="n">
-        <v>0.579</v>
+        <v>0.985</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1097,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1.38718494167258</v>
+        <v>0.0444693554893801</v>
       </c>
       <c r="G19" t="n">
-        <v>4.08657202518731</v>
+        <v>1.71131783990673</v>
       </c>
       <c r="H19" t="n">
-        <v>0.236</v>
+        <v>0.969</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1129,13 +1110,13 @@
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0496084475750945</v>
+        <v>0.825363529227182</v>
       </c>
       <c r="G20" t="n">
-        <v>6.14786319328992</v>
+        <v>5.06699164950168</v>
       </c>
       <c r="H20" t="n">
-        <v>0.962</v>
+        <v>0.446</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1161,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.953439458325962</v>
+        <v>-0.512206089655156</v>
       </c>
       <c r="G21" t="n">
-        <v>5.95060363810758</v>
+        <v>5.97135511810508</v>
       </c>
       <c r="H21" t="n">
-        <v>0.377</v>
+        <v>0.627</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1193,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2.69404386885259</v>
+        <v>0.649408362549915</v>
       </c>
       <c r="G22" t="n">
-        <v>3.00244953579957</v>
+        <v>3.68219976618258</v>
       </c>
       <c r="H22" t="n">
-        <v>0.074</v>
+        <v>0.554</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1225,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.898011119881364</v>
+        <v>0.534780013750018</v>
       </c>
       <c r="G23" t="n">
-        <v>3.37828229849878</v>
+        <v>3.10263042549995</v>
       </c>
       <c r="H23" t="n">
-        <v>0.429</v>
+        <v>0.629</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1257,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.11758632159898</v>
+        <v>-1.66242673520589</v>
       </c>
       <c r="G24" t="n">
-        <v>4.03814957325046</v>
+        <v>4.32225104853991</v>
       </c>
       <c r="H24" t="n">
-        <v>0.326</v>
+        <v>0.166</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1289,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>2.60818725605431</v>
+        <v>0.471012158187864</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.73559561000823</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.664</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1321,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0835708658615181</v>
+        <v>-0.245011804232194</v>
       </c>
       <c r="G26" t="n">
-        <v>3.27994312994992</v>
+        <v>5.64488210199154</v>
       </c>
       <c r="H26" t="n">
-        <v>0.938</v>
+        <v>0.815</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1353,13 +1334,13 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1.49536572078736</v>
+        <v>-0.117783848703066</v>
       </c>
       <c r="G27" t="n">
-        <v>3.26237541151834</v>
+        <v>1.66096122953821</v>
       </c>
       <c r="H27" t="n">
-        <v>0.225</v>
+        <v>0.919</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -1385,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.823683418572835</v>
+        <v>0.530958553951404</v>
       </c>
       <c r="G28" t="n">
-        <v>7.74699773270351</v>
+        <v>3.85652890865153</v>
       </c>
       <c r="H28" t="n">
-        <v>0.435</v>
+        <v>0.625</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1417,13 +1398,13 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>3.74952412976945</v>
+        <v>1.25388052755316</v>
       </c>
       <c r="G29" t="n">
-        <v>3.00204059167511</v>
+        <v>3.517804799052</v>
       </c>
       <c r="H29" t="n">
-        <v>0.033</v>
+        <v>0.287</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1449,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2.07948028786957</v>
+        <v>1.31589976915323</v>
       </c>
       <c r="G30" t="n">
-        <v>3.32035370725882</v>
+        <v>3.11755947015193</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.277</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1481,13 +1462,13 @@
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>0.164662101193102</v>
+        <v>-1.09612696444447</v>
       </c>
       <c r="G31" t="n">
-        <v>3.88622798043941</v>
+        <v>4.46051991801246</v>
       </c>
       <c r="H31" t="n">
-        <v>0.877</v>
+        <v>0.329</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1513,13 +1494,13 @@
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>3.67129971533466</v>
+        <v>1.07426305866669</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>3.5819729224945</v>
       </c>
       <c r="H32" t="n">
-        <v>0.035</v>
+        <v>0.35</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1545,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1.18985611413337</v>
+        <v>0.322308378204372</v>
       </c>
       <c r="G33" t="n">
-        <v>3.23334718787199</v>
+        <v>5.8019286537237</v>
       </c>
       <c r="H33" t="n">
-        <v>0.314</v>
+        <v>0.759</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1577,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2.6365852289078</v>
+        <v>0.226116503591965</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2207517789722</v>
+        <v>1.57265553601158</v>
       </c>
       <c r="H34" t="n">
-        <v>0.072</v>
+        <v>0.847</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1609,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>0.132165358183016</v>
+        <v>1.26066549135859</v>
       </c>
       <c r="G35" t="n">
-        <v>7.43780976587023</v>
+        <v>3.98432363284185</v>
       </c>
       <c r="H35" t="n">
-        <v>0.898</v>
+        <v>0.276</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1641,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>-6.72115512947535</v>
+        <v>-0.359124101328492</v>
       </c>
       <c r="G36" t="n">
-        <v>1.01189802069737</v>
+        <v>1.05748861552996</v>
       </c>
       <c r="H36" t="n">
-        <v>0.092</v>
+        <v>0.778</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -1673,16 +1654,16 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>-8.92993857473095</v>
+        <v>-2.89053685255693</v>
       </c>
       <c r="G37" t="n">
-        <v>2.00851022417938</v>
+        <v>1.86878762618393</v>
       </c>
       <c r="H37" t="n">
-        <v>0.012</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>0.641</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -1705,13 +1686,13 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.27555395291992</v>
+        <v>-0.213234771826672</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.99867749107512</v>
       </c>
       <c r="H38" t="n">
-        <v>0.146</v>
+        <v>0.851</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1737,16 +1718,16 @@
         <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>-12.800821795489</v>
+        <v>-1.03203422825472</v>
       </c>
       <c r="G39" t="n">
-        <v>3.05193796135838</v>
+        <v>2.98324953779052</v>
       </c>
       <c r="H39" t="n">
-        <v>0.000944</v>
+        <v>0.378</v>
       </c>
       <c r="I39" t="n">
-        <v>0.052</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
@@ -1769,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.40047654526345</v>
+        <v>-0.543598846092808</v>
       </c>
       <c r="G40" t="n">
-        <v>1.01770335816302</v>
+        <v>1.36180759450817</v>
       </c>
       <c r="H40" t="n">
-        <v>0.113</v>
+        <v>0.662</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1801,16 +1782,16 @@
         <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.62232809509243</v>
+        <v>-0.29620697333508</v>
       </c>
       <c r="G41" t="n">
-        <v>5.00351170311477</v>
+        <v>1.50158276529959</v>
       </c>
       <c r="H41" t="n">
-        <v>0.015</v>
+        <v>0.803</v>
       </c>
       <c r="I41" t="n">
-        <v>0.745</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
@@ -1833,13 +1814,13 @@
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.20995276734679</v>
+        <v>-4.5707076255452</v>
       </c>
       <c r="G42" t="n">
-        <v>2.93580388183369</v>
+        <v>2.25728511326521</v>
       </c>
       <c r="H42" t="n">
-        <v>0.026</v>
+        <v>0.035</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1865,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>6.4113397241848</v>
+        <v>0.0672217022700097</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>1.06051888142208</v>
       </c>
       <c r="H43" t="n">
-        <v>0.098</v>
+        <v>0.957</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1897,13 +1878,13 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.9842878775877</v>
+        <v>-1.08169487366133</v>
       </c>
       <c r="G44" t="n">
-        <v>2.44763512355523</v>
+        <v>3.16904003047577</v>
       </c>
       <c r="H44" t="n">
-        <v>0.075</v>
+        <v>0.355</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1929,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1.77432097495204</v>
+        <v>-0.433524231353094</v>
       </c>
       <c r="G45" t="n">
-        <v>1.92591017421296</v>
+        <v>1.01077313888577</v>
       </c>
       <c r="H45" t="n">
-        <v>0.223</v>
+        <v>0.739</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1961,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.92844927891214</v>
+        <v>0.0694861271852028</v>
       </c>
       <c r="G46" t="n">
-        <v>5.51197890024072</v>
+        <v>5.86597566000193</v>
       </c>
       <c r="H46" t="n">
-        <v>0.106</v>
+        <v>0.947</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1993,16 +1974,16 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>8.74212541622349</v>
+        <v>2.68903448142283</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.91103666641207</v>
       </c>
       <c r="H47" t="n">
-        <v>0.013</v>
+        <v>0.121</v>
       </c>
       <c r="I47" t="n">
-        <v>0.666</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>13</v>
@@ -2025,13 +2006,13 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2.32304343635562</v>
+        <v>1.6792691281739</v>
       </c>
       <c r="G48" t="n">
-        <v>2.97629868694296</v>
+        <v>4.8085706460623</v>
       </c>
       <c r="H48" t="n">
-        <v>0.103</v>
+        <v>0.156</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2057,16 +2038,16 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>5.63715690191393</v>
+        <v>0.868413636851463</v>
       </c>
       <c r="G49" t="n">
-        <v>2.75876607922965</v>
+        <v>1.16311540115194</v>
       </c>
       <c r="H49" t="n">
-        <v>0.014</v>
+        <v>0.528</v>
       </c>
       <c r="I49" t="n">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
@@ -2089,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00761578550130505</v>
+        <v>3.84665140625525</v>
       </c>
       <c r="G50" t="n">
-        <v>6.35365905791519</v>
+        <v>4.25357010745122</v>
       </c>
       <c r="H50" t="n">
-        <v>0.994</v>
+        <v>0.016</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0.902</v>
       </c>
       <c r="J50" t="s">
         <v>13</v>
@@ -2121,16 +2102,16 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>-12.4570159071431</v>
+        <v>-0.83145410416432</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>3.06040281134297</v>
       </c>
       <c r="H51" t="n">
-        <v>0.001</v>
+        <v>0.466</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>13</v>
@@ -2153,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>-5.02205313996889</v>
+        <v>-0.427043109763898</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.34480281849437</v>
       </c>
       <c r="H52" t="n">
-        <v>0.125</v>
+        <v>0.728</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2185,16 +2166,16 @@
         <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.54281440926472</v>
+        <v>-0.028532299962107</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>1.52982503701247</v>
       </c>
       <c r="H53" t="n">
-        <v>0.016</v>
+        <v>0.981</v>
       </c>
       <c r="I53" t="n">
-        <v>0.792</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>13</v>
@@ -2217,16 +2198,16 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>5.29866633103366</v>
+        <v>0.0344427402656907</v>
       </c>
       <c r="G54" t="n">
-        <v>3.02008861925163</v>
+        <v>1.38874906623902</v>
       </c>
       <c r="H54" t="n">
-        <v>0.013</v>
+        <v>0.977</v>
       </c>
       <c r="I54" t="n">
-        <v>0.666</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>13</v>
@@ -2249,13 +2230,13 @@
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.02377991459749</v>
+        <v>1.01969456799189</v>
       </c>
       <c r="G55" t="n">
-        <v>5.39586449397127</v>
+        <v>4.42636929250449</v>
       </c>
       <c r="H55" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -2281,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.4932028676229</v>
+        <v>0.440577172938533</v>
       </c>
       <c r="G56" t="n">
-        <v>5.36260049502502</v>
+        <v>1.08834592135251</v>
       </c>
       <c r="H56" t="n">
-        <v>0.052</v>
+        <v>0.731</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2347,25 +2328,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.19535779764375</v>
+        <v>1.11637983436666</v>
       </c>
       <c r="G2" t="n">
-        <v>5.28512776833968</v>
+        <v>1.97564054593592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.283</v>
+        <v>0.382</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -2379,25 +2360,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.00878132686035</v>
+        <v>0.596432479326678</v>
       </c>
       <c r="G3" t="n">
-        <v>5.84561959664408</v>
+        <v>2.19342917576923</v>
       </c>
       <c r="H3" t="n">
-        <v>0.353</v>
+        <v>0.607</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -2411,25 +2392,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.97515639939923</v>
+        <v>-0.0836315992470559</v>
       </c>
       <c r="G4" t="n">
-        <v>5.64727122979426</v>
+        <v>1.96433103387021</v>
       </c>
       <c r="H4" t="n">
-        <v>0.099</v>
+        <v>0.941</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -2443,25 +2424,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.61532255985934</v>
+        <v>0.931246056314463</v>
       </c>
       <c r="G5" t="n">
-        <v>3.00339963292079</v>
+        <v>2.38921146854109</v>
       </c>
       <c r="H5" t="n">
-        <v>0.205</v>
+        <v>0.436</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2475,25 +2456,25 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.444491826297322</v>
+        <v>1.00152948141467</v>
       </c>
       <c r="G6" t="n">
-        <v>3.50356170091357</v>
+        <v>1.13579535167607</v>
       </c>
       <c r="H6" t="n">
-        <v>0.683</v>
+        <v>0.483</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -2507,25 +2488,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>1.51397842256179</v>
+        <v>-0.66917993804489</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.52766377792162</v>
       </c>
       <c r="H7" t="n">
-        <v>0.227</v>
+        <v>0.559</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2539,25 +2520,25 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.939545010860935</v>
+        <v>-1.28703902472905</v>
       </c>
       <c r="G8" t="n">
-        <v>4.16511477598871</v>
+        <v>1.99884165743807</v>
       </c>
       <c r="H8" t="n">
-        <v>0.399</v>
+        <v>0.327</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -2571,25 +2552,25 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.66282419428692</v>
+        <v>-0.249927414750381</v>
       </c>
       <c r="G9" t="n">
-        <v>4.34759417116878</v>
+        <v>2.69555448907604</v>
       </c>
       <c r="H9" t="n">
-        <v>0.052</v>
+        <v>0.82</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -2603,28 +2584,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.33057379225537</v>
+        <v>-0.498449035557139</v>
       </c>
       <c r="G10" t="n">
-        <v>5.99722527056448</v>
+        <v>1.17098053314849</v>
       </c>
       <c r="H10" t="n">
-        <v>0.016</v>
+        <v>0.696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.774</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -2635,25 +2616,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.223764672591051</v>
+        <v>-0.748288715228909</v>
       </c>
       <c r="G11" t="n">
-        <v>2.31313859894792</v>
+        <v>2.61107502385912</v>
       </c>
       <c r="H11" t="n">
-        <v>0.841</v>
+        <v>0.516</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -2667,25 +2648,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.581975091330965</v>
+        <v>0.43116199231389</v>
       </c>
       <c r="G12" t="n">
-        <v>5.70360741135542</v>
+        <v>7.53926511549993</v>
       </c>
       <c r="H12" t="n">
-        <v>0.583</v>
+        <v>0.678</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -2699,25 +2680,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.038059572525208</v>
+        <v>0.398024738728748</v>
       </c>
       <c r="G13" t="n">
-        <v>5.96695348600828</v>
+        <v>8.87735901313405</v>
       </c>
       <c r="H13" t="n">
-        <v>0.971</v>
+        <v>0.7</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -2731,25 +2712,25 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.96383259759514</v>
+        <v>1.09979832967835</v>
       </c>
       <c r="G14" t="n">
-        <v>4.00077949893081</v>
+        <v>2.76563499364872</v>
       </c>
       <c r="H14" t="n">
-        <v>0.121</v>
+        <v>0.358</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -2763,25 +2744,25 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>1.09224606215643</v>
+        <v>1.25805966264241</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1276876188955</v>
+        <v>1.17974127862688</v>
       </c>
       <c r="H15" t="n">
-        <v>0.334</v>
+        <v>0.402</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -2795,1310 +2776,30 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>1.92172104864726</v>
+        <v>-0.192149503371231</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3.63141447076577</v>
       </c>
       <c r="H16" t="n">
-        <v>0.127</v>
+        <v>0.858</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.854955024944984</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.26347721944964</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0505933117051392</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.35617682356268</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.591311648183144</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.23639952263331</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.27665301549541</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.98889956611734</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.953439458325962</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5.95060363810758</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.69404386885259</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.00244953579957</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.898011119881364</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.37828229849878</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.60818725605431</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.424536283263751</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.83938561619903</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-1.11758632159898</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.03814957325046</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-2.02484797661059</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.80479711463257</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.10621678972204</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.76093077482455</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.74952412976945</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.00204059167511</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.07948028786957</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.32035370725882</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.67129971533466</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.6140733325846</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.69847987463511</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.164662101193102</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.88622798043941</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.885851442218478</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.59238047063046</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.97627555487845</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3.03307660247966</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-6.72115512947535</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.01189802069737</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-4.27555395291992</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-6.03234135330865</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5.0294837365503</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-8.92993857473095</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.00851022417938</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-6.41065229285122</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.00354900949651</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-0.981160732902793</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.00069560221373</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6.4113397241848</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-1.04677043242809</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5.00636071547514</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-4.20995276734679</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.93580388183369</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-4.08781119405439</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.52202228710566</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.630426703435558</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.11652500447665</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-5.8084261866414</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-8.74212541622349</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-6.30853333600311</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.901594708689684</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-2.91447870548234</v>
-      </c>
-      <c r="G51" t="n">
-        <v>4.89409186943251</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-3.39098227427462</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4.21596441346826</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="n">
-        <v>6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.02874549632457</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.24484396817239</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-1.50396477396278</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4.39042821158434</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.43946822896651</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.33545836360097</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3.12250405862037</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2.26042890211402</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4153,25 +2854,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.32150118140815</v>
+        <v>-0.394244354385891</v>
       </c>
       <c r="G2" t="n">
-        <v>1.27984006172092</v>
+        <v>9.73485161494133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.374</v>
+        <v>0.702</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -4185,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.786733915251986</v>
+        <v>-3.67033961861952</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88747516524811</v>
+        <v>4.8198919527903</v>
       </c>
       <c r="H3" t="n">
-        <v>0.518</v>
+        <v>0.015</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.222</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -4217,25 +2918,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2194584356201</v>
+        <v>1.36678329966649</v>
       </c>
       <c r="G4" t="n">
-        <v>1.01601075134033</v>
+        <v>4.52874367844333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.435</v>
+        <v>0.236</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -4249,25 +2950,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>1.35754208550495</v>
+        <v>-1.37229902944662</v>
       </c>
       <c r="G5" t="n">
-        <v>3.30057657928587</v>
+        <v>17.9378599749927</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.187</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4281,25 +2982,25 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.33496821029863</v>
+        <v>-0.94557573702157</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5275429925274</v>
+        <v>9.68920552281612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.346</v>
+        <v>0.367</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -4313,28 +3014,28 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.666186335169132</v>
+        <v>-2.79889650158359</v>
       </c>
       <c r="G7" t="n">
-        <v>6.72965395501925</v>
+        <v>6.16793656849262</v>
       </c>
       <c r="H7" t="n">
-        <v>0.527</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.394</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -4345,25 +3046,25 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.485090930776328</v>
+        <v>1.52310075222518</v>
       </c>
       <c r="G8" t="n">
-        <v>1.11179763813557</v>
+        <v>5.55538590732805</v>
       </c>
       <c r="H8" t="n">
-        <v>0.706</v>
+        <v>0.182</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -4377,25 +3078,25 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.523633908645091</v>
+        <v>-0.801153671378549</v>
       </c>
       <c r="G9" t="n">
-        <v>3.59339860221478</v>
+        <v>12.0937192752149</v>
       </c>
       <c r="H9" t="n">
-        <v>0.631</v>
+        <v>0.438</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -4409,25 +3110,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.117577869324601</v>
+        <v>-0.554060226166933</v>
       </c>
       <c r="G10" t="n">
-        <v>6.19946486588726</v>
+        <v>10.7792592700825</v>
       </c>
       <c r="H10" t="n">
-        <v>0.91</v>
+        <v>0.591</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -4441,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.472010350315632</v>
+        <v>5.08548155481522</v>
       </c>
       <c r="G11" t="n">
-        <v>7.26980246242404</v>
+        <v>2.99397056047431</v>
       </c>
       <c r="H11" t="n">
-        <v>0.651</v>
+        <v>0.015</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.222</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -4473,28 +3174,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.864344230735869</v>
+        <v>2.18097713577714</v>
       </c>
       <c r="G12" t="n">
-        <v>4.98914044681316</v>
+        <v>6.26426995679855</v>
       </c>
       <c r="H12" t="n">
-        <v>0.427</v>
+        <v>0.07</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.771</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -4505,28 +3206,28 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.705234933730433</v>
+        <v>1.84956401918392</v>
       </c>
       <c r="G13" t="n">
-        <v>15.9826395309938</v>
+        <v>7.67871020665041</v>
       </c>
       <c r="H13" t="n">
-        <v>0.491</v>
+        <v>0.103</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -4537,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.721093034352998</v>
+        <v>-2.69629640900307</v>
       </c>
       <c r="G14" t="n">
-        <v>3.03893456800347</v>
+        <v>6.51985462551333</v>
       </c>
       <c r="H14" t="n">
-        <v>0.522</v>
+        <v>0.033</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.396</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -4569,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.526246061898425</v>
+        <v>-1.90336215453154</v>
       </c>
       <c r="G15" t="n">
-        <v>19.8729414334787</v>
+        <v>6.88276292939991</v>
       </c>
       <c r="H15" t="n">
-        <v>0.605</v>
+        <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -4601,25 +3302,25 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.446390323183605</v>
+        <v>0.104959960451448</v>
       </c>
       <c r="G16" t="n">
-        <v>4.25177149870238</v>
+        <v>11.4411997873023</v>
       </c>
       <c r="H16" t="n">
-        <v>0.677</v>
+        <v>0.918</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -4679,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.21721807246583</v>
+        <v>3.77543686557951</v>
       </c>
       <c r="G2" t="n">
-        <v>11.99888822208</v>
+        <v>3.83982943311882</v>
       </c>
       <c r="H2" t="n">
-        <v>0.247</v>
+        <v>0.021</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.063</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -4711,31 +3412,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.01333136468966</v>
+        <v>2.72489222843668</v>
       </c>
       <c r="G3" t="n">
-        <v>6.66181806042479</v>
+        <v>4.4953272048986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002</v>
+        <v>0.046</v>
       </c>
       <c r="I3" t="n">
-        <v>0.027</v>
+        <v>0.093</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -4743,414 +3444,30 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.301845164883379</v>
+        <v>-1.15897368483768</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39794469282803</v>
+        <v>32.7477232139454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.802</v>
+        <v>0.255</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.255</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-3.66744994418633</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17.4802376518685</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-3.59190369560629</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.65367694181464</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-4.15862276752172</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.23947126313248</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.338038317496388</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.28337106119359</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-2.74965134544515</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15.505746709162</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3.08487128225349</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.18553395476417</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.43946822896651</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.33545836360097</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.09285083017685</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.94431359346833</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1.20052649986048</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.23259608780523</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.79047001517024</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.44985665321636</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2.68340207057947</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.20469948107849</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.71875863750077</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.89530195606228</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="J16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5205,31 +3522,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5.31350736360517</v>
+        <v>2.18467589439989</v>
       </c>
       <c r="G2" t="n">
-        <v>4.53928372444845</v>
+        <v>1.53114286892135</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004</v>
+        <v>0.198</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -5237,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.209954559460613</v>
+        <v>2.89053685255693</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5142647671042</v>
+        <v>1.86878762618393</v>
       </c>
       <c r="H3" t="n">
-        <v>0.837</v>
+        <v>0.11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.837</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -5269,152 +3586,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-4.1387547147375</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.9157108481749</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.000262</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000786</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.91669399687834</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.46288978201309</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.92993857473095</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.00851022417938</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -5423,13 +3598,13 @@
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.972107190334991</v>
+        <v>1.88037804985535</v>
       </c>
       <c r="G4" t="n">
-        <v>6.32263209737341</v>
+        <v>6.81432313724106</v>
       </c>
       <c r="H4" t="n">
-        <v>0.367</v>
+        <v>0.103</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -5443,10 +3618,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -5455,13 +3630,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2.23689878179265</v>
+        <v>0.592090196007028</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26579174341029</v>
+        <v>1.55719917678963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.14</v>
+        <v>0.628</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -5475,10 +3650,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -5487,16 +3662,16 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>5.63715690191393</v>
+        <v>0.868413636851463</v>
       </c>
       <c r="G6" t="n">
-        <v>2.75876607922965</v>
+        <v>1.16311540115194</v>
       </c>
       <c r="H6" t="n">
-        <v>0.014</v>
+        <v>0.528</v>
       </c>
       <c r="I6" t="n">
-        <v>0.469</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -5507,10 +3682,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -5519,13 +3694,13 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83369494696419</v>
+        <v>2.34698256748857</v>
       </c>
       <c r="G7" t="n">
-        <v>6.92667862150371</v>
+        <v>6.8634904587107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11</v>
+        <v>0.052</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -5539,10 +3714,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -5551,16 +3726,16 @@
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.49511642967817</v>
+        <v>4.0239214901697</v>
       </c>
       <c r="G8" t="n">
-        <v>11.3236118893524</v>
+        <v>3.42843880299287</v>
       </c>
       <c r="H8" t="n">
-        <v>0.162</v>
+        <v>0.021</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -5571,10 +3746,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -5583,13 +3758,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.587429707686499</v>
+        <v>0.570382619032335</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08030978566325</v>
+        <v>2.36979399210504</v>
       </c>
       <c r="H9" t="n">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -5603,10 +3778,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -5615,13 +3790,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>5.44839578438872</v>
+        <v>0.181525569341579</v>
       </c>
       <c r="G10" t="n">
-        <v>1.00343655686849</v>
+        <v>1.88357317638023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.115</v>
+        <v>0.874</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -5635,10 +3810,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -5647,13 +3822,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0913546393659944</v>
+        <v>-0.711950613450824</v>
       </c>
       <c r="G11" t="n">
-        <v>5.99993128451253</v>
+        <v>2.03947250011197</v>
       </c>
       <c r="H11" t="n">
-        <v>0.93</v>
+        <v>0.549</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -5667,10 +3842,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -5679,13 +3854,13 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.485090930776328</v>
+        <v>-1.28703902472905</v>
       </c>
       <c r="G12" t="n">
-        <v>1.11179763813557</v>
+        <v>1.99884165743807</v>
       </c>
       <c r="H12" t="n">
-        <v>0.706</v>
+        <v>0.327</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -5699,10 +3874,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -5711,13 +3886,13 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2.80325970227427</v>
+        <v>-0.405356049953958</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37411330550999</v>
+        <v>1.56738566113016</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.734</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -5731,10 +3906,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -5743,13 +3918,13 @@
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.41890792581895</v>
+        <v>-0.356979518797994</v>
       </c>
       <c r="G14" t="n">
-        <v>5.48826543470136</v>
+        <v>2.09379293216199</v>
       </c>
       <c r="H14" t="n">
-        <v>0.691</v>
+        <v>0.754</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5763,10 +3938,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -5775,13 +3950,13 @@
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0547372184073776</v>
+        <v>-0.0975419378893398</v>
       </c>
       <c r="G15" t="n">
-        <v>6.46646750758109</v>
+        <v>1.17190736994472</v>
       </c>
       <c r="H15" t="n">
-        <v>0.958</v>
+        <v>0.936</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5795,10 +3970,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -5807,13 +3982,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.987592252799312</v>
+        <v>-0.75176245266044</v>
       </c>
       <c r="G16" t="n">
-        <v>2.09822416445821</v>
+        <v>2.93940540733357</v>
       </c>
       <c r="H16" t="n">
-        <v>0.423</v>
+        <v>0.508</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -5827,10 +4002,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -5839,13 +4014,13 @@
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.52717626301496</v>
+        <v>-1.05829956213205</v>
       </c>
       <c r="G17" t="n">
-        <v>5.00340308632668</v>
+        <v>2.77829034507156</v>
       </c>
       <c r="H17" t="n">
-        <v>0.053</v>
+        <v>0.373</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -5859,10 +4034,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -5871,16 +4046,16 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>-24.756839877608</v>
+        <v>-1.62673140172997</v>
       </c>
       <c r="G18" t="n">
-        <v>1.06122815111392</v>
+        <v>1.90289493002522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.021</v>
+        <v>0.252</v>
       </c>
       <c r="I18" t="n">
-        <v>0.706</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -5891,10 +4066,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -5903,13 +4078,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.40047654526345</v>
+        <v>-0.543598846092808</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01770335816302</v>
+        <v>1.36180759450817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.113</v>
+        <v>0.662</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -5923,10 +4098,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -5935,13 +4110,13 @@
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.90969583493041</v>
+        <v>-0.638443179746896</v>
       </c>
       <c r="G20" t="n">
-        <v>5.00668867295747</v>
+        <v>2.86655653463484</v>
       </c>
       <c r="H20" t="n">
-        <v>0.033</v>
+        <v>0.571</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -5955,10 +4130,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -5967,16 +4142,16 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.97079695175061</v>
+        <v>-0.400325392553201</v>
       </c>
       <c r="G21" t="n">
-        <v>11.0193020780615</v>
+        <v>1.29221253904149</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002</v>
+        <v>0.745</v>
       </c>
       <c r="I21" t="n">
-        <v>0.079</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -5987,10 +4162,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -5999,13 +4174,13 @@
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.86018905927386</v>
+        <v>-0.920208407339859</v>
       </c>
       <c r="G22" t="n">
-        <v>2.00017111261679</v>
+        <v>2.70880128632853</v>
       </c>
       <c r="H22" t="n">
-        <v>0.204</v>
+        <v>0.432</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -6019,10 +4194,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
         <v>6</v>
@@ -6031,13 +4206,13 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.121255439023956</v>
+        <v>-0.790625635009994</v>
       </c>
       <c r="G23" t="n">
-        <v>5.10859517561339</v>
+        <v>2.09463011244579</v>
       </c>
       <c r="H23" t="n">
-        <v>0.908</v>
+        <v>0.509</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -6051,10 +4226,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
         <v>6</v>
@@ -6063,13 +4238,13 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1.43634054344684</v>
+        <v>0.0143440548486872</v>
       </c>
       <c r="G24" t="n">
-        <v>5.35248349090335</v>
+        <v>1.29985478851566</v>
       </c>
       <c r="H24" t="n">
-        <v>0.207</v>
+        <v>0.99</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -6083,10 +4258,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
         <v>6</v>
@@ -6095,13 +4270,13 @@
         <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.368134598710223</v>
+        <v>0.439211586293016</v>
       </c>
       <c r="G25" t="n">
-        <v>9.04004626081259</v>
+        <v>9.99437838214454</v>
       </c>
       <c r="H25" t="n">
-        <v>0.721</v>
+        <v>0.67</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -6115,10 +4290,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
@@ -6127,13 +4302,13 @@
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>0.049382577920884</v>
+        <v>1.03103947539991</v>
       </c>
       <c r="G26" t="n">
-        <v>9.00000777713809</v>
+        <v>6.87236820387795</v>
       </c>
       <c r="H26" t="n">
-        <v>0.962</v>
+        <v>0.337</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -6147,10 +4322,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -6159,13 +4334,13 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.908963986319287</v>
+        <v>-0.333694592278664</v>
       </c>
       <c r="G27" t="n">
-        <v>2.51815004065862</v>
+        <v>2.68766594551264</v>
       </c>
       <c r="H27" t="n">
-        <v>0.442</v>
+        <v>0.763</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -6179,10 +4354,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -6191,13 +4366,13 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>7.12099359404873</v>
+        <v>0.473497123735462</v>
       </c>
       <c r="G28" t="n">
-        <v>1.53327266565908</v>
+        <v>1.54512885624945</v>
       </c>
       <c r="H28" t="n">
-        <v>0.037</v>
+        <v>0.694</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -6211,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -6223,13 +4398,13 @@
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.79642296601731</v>
+        <v>1.13975737369518</v>
       </c>
       <c r="G29" t="n">
-        <v>5.20851907704673</v>
+        <v>2.15174491936535</v>
       </c>
       <c r="H29" t="n">
-        <v>0.461</v>
+        <v>0.365</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -6243,10 +4418,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -6255,13 +4430,13 @@
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>0.285601347038442</v>
+        <v>1.66748056105199</v>
       </c>
       <c r="G30" t="n">
-        <v>11.536835549737</v>
+        <v>1.18069986273964</v>
       </c>
       <c r="H30" t="n">
-        <v>0.78</v>
+        <v>0.315</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -6275,10 +4450,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -6287,13 +4462,13 @@
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.920510859549058</v>
+        <v>0.176377740974197</v>
       </c>
       <c r="G31" t="n">
-        <v>2.00558030096313</v>
+        <v>2.9220962799722</v>
       </c>
       <c r="H31" t="n">
-        <v>0.454</v>
+        <v>0.872</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -6307,10 +4482,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -6319,13 +4494,13 @@
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.36783838503586</v>
+        <v>0.206990733175417</v>
       </c>
       <c r="G32" t="n">
-        <v>5.62424081287898</v>
+        <v>1.3151200375275</v>
       </c>
       <c r="H32" t="n">
-        <v>0.223</v>
+        <v>0.863</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -6339,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -6351,13 +4526,13 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.15629887768171</v>
+        <v>0.402380252780132</v>
       </c>
       <c r="G33" t="n">
-        <v>11.991852703903</v>
+        <v>1.05218235187567</v>
       </c>
       <c r="H33" t="n">
-        <v>0.052</v>
+        <v>0.754</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -6371,10 +4546,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -6383,13 +4558,13 @@
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.47957967253098</v>
+        <v>-0.256222777865229</v>
       </c>
       <c r="G34" t="n">
-        <v>2.01928238344375</v>
+        <v>2.52579989095994</v>
       </c>
       <c r="H34" t="n">
-        <v>0.276</v>
+        <v>0.817</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -6403,10 +4578,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -6415,13 +4590,13 @@
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.416492448339065</v>
+        <v>0.443565368981839</v>
       </c>
       <c r="G35" t="n">
-        <v>12.2673637232372</v>
+        <v>6.78409136971809</v>
       </c>
       <c r="H35" t="n">
-        <v>0.684</v>
+        <v>0.671</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -6435,10 +4610,10 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -6447,13 +4622,13 @@
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.09033781098077</v>
+        <v>-0.568671173055867</v>
       </c>
       <c r="G36" t="n">
-        <v>2.25995796982256</v>
+        <v>2.72195498173293</v>
       </c>
       <c r="H36" t="n">
-        <v>0.378</v>
+        <v>0.613</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -6467,10 +4642,10 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -6479,13 +4654,13 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.961906426179545</v>
+        <v>-0.80424360781685</v>
       </c>
       <c r="G37" t="n">
-        <v>2.19794397853082</v>
+        <v>2.12138499070628</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.501</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
